--- a/Reference/Airline characteristic.xlsx
+++ b/Reference/Airline characteristic.xlsx
@@ -19,7 +19,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="E6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -45,7 +45,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F5" authorId="0" shapeId="0">
+    <comment ref="F6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="11">
   <si>
     <t>VNA</t>
   </si>
@@ -90,9 +90,6 @@
     <t>1 chuyến bay - 1 chặn - 1 mã máy bay</t>
   </si>
   <si>
-    <t>UNKOWN</t>
-  </si>
-  <si>
     <t>√</t>
   </si>
   <si>
@@ -109,6 +106,9 @@
   </si>
   <si>
     <t>Show giá trước thuế, khi click chọn show tổng giá sau thuế</t>
+  </si>
+  <si>
+    <t>1 chuyến bay - nhiều chặn - nhiều mã máy bay</t>
   </si>
 </sst>
 </file>
@@ -147,7 +147,7 @@
       <charset val="163"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -157,12 +157,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -200,12 +194,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -515,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:F6"/>
+  <dimension ref="C1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -543,69 +534,83 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="3:6" ht="15" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="3:6" ht="15" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>6</v>
+      <c r="E4" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="3:6" ht="15" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="3:6" ht="15" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
